--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2546.6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>2663</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2411</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02825794219970703</v>
+        <v>2066</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10, 27, 1, 12, 2, 7, 30, 13, 25, 18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 12 -&gt; 18 -&gt; 10 -&gt; 7 -&gt; 2 -&gt; 1 -&gt; 25 -&gt; 27 -&gt; 30 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 29 -&gt; 13 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03557538986206055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2557.8</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>2695</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2476</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03660915692647298</v>
+        <v>2082</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 27, 30, 26, 1, 25, 23, 24, 11, 14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 23 -&gt; 8 -&gt; 11 -&gt; 14 -&gt; 1 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 30 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 12 -&gt; 11 -&gt; 10 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03734302520751953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2501.966666666667</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2761</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2121</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.04116293589274089</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2727.166666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2886</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2653</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.04102012316385905</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2146.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2420</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.04068776766459147</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2419.166666666667</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2529</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2287</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0406381607055664</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2530.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2720</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2443</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04119596481323242</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2680.4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2915</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2548</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.04079599380493164</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2756.433333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2989</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2437</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03731729984283447</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2332.733333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2542</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2262</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0374104102452596</v>
+        <v>2210</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 16, 10, 9, 27, 24, 8, 1, 26, 6</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 6 -&gt; 26 -&gt; 27 -&gt; 32 -&gt; 24 -&gt; 16 -&gt; 8 -&gt; 10 -&gt; 1 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03729486465454102</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
@@ -454,7 +454,7 @@
         <v>2066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02748942375183105</v>
+        <v>0.02835893630981445</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>2242.833333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>2066</v>
+        <v>2376</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02835893630981445</v>
+        <v>2098</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03518081506093343</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2247.266666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2331</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03596404393513997</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1987.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2254</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1784</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04211782614390056</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2313.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2199</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03972384929656982</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1974.966666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2133</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1768</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03719279766082764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2146.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2266</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2051</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03582545916239421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2228.233333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2355</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2136</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0369130293528239</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2261.033333333333</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2476</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03914109071095784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2425.133333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2588</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2267</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03696901003519694</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1968.733333333333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2103</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03594632148742676</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
+++ b/Algoritmo_Rota/Planilhas/A_Estrela_Euclidiano/PLN_32_10.xlsx
@@ -462,7 +462,7 @@
         <v>2098</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03518081506093343</v>
+        <v>0.03041600386301676</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>2165</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03596404393513997</v>
+        <v>0.02858764330546061</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>1784</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04211782614390056</v>
+        <v>0.03171764214833577</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>2199</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03972384929656982</v>
+        <v>0.03155186971028646</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>1768</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03719279766082764</v>
+        <v>0.03110279242197673</v>
       </c>
     </row>
     <row r="7">
@@ -547,7 +547,7 @@
         <v>2051</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03582545916239421</v>
+        <v>0.03106932640075684</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>2136</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0369130293528239</v>
+        <v>0.03144137064615885</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>2100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03914109071095784</v>
+        <v>0.03159577846527099</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +598,7 @@
         <v>2267</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03696901003519694</v>
+        <v>0.02847739855448405</v>
       </c>
     </row>
     <row r="11">
@@ -615,7 +615,7 @@
         <v>1938</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03594632148742676</v>
+        <v>0.02911403179168701</v>
       </c>
     </row>
   </sheetData>
